--- a/Results.xlsx
+++ b/Results.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>WasherDryer</t>
-  </si>
-  <si>
-    <t>DishWasher</t>
+    <t>TumbleDryer</t>
   </si>
   <si>
     <t>WashingMachine</t>
@@ -395,15 +392,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H289"/>
+  <dimension ref="A1:G289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -423,22 +420,19 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>792.034786057663</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -447,24 +441,21 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>271.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>335.2521973529143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>792.034786057663</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -473,24 +464,21 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>186.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>344.6313184117486</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>792.034786057663</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -499,24 +487,21 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>186.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>410.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>792.034786057663</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -525,24 +510,21 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>186.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>449.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>317.4139144230652</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -551,13 +533,10 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>186.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>353.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -565,10 +544,10 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -577,13 +556,10 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>243.71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>182.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -591,10 +567,10 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -603,13 +579,10 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>182.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -617,10 +590,10 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -629,13 +602,10 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>114.85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -643,10 +613,10 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -655,13 +625,10 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -669,10 +636,10 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -681,13 +648,10 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -695,10 +659,10 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -707,13 +671,10 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -721,10 +682,10 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -733,13 +694,10 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -747,10 +705,10 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -759,13 +717,10 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -773,10 +728,10 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -785,13 +740,10 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -799,10 +751,10 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -811,13 +763,10 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -825,10 +774,10 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -837,13 +786,10 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -851,10 +797,10 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -863,13 +809,10 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -877,10 +820,10 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -889,13 +832,10 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -903,10 +843,10 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -915,13 +855,10 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -929,10 +866,10 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -941,13 +878,10 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -955,10 +889,10 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -967,13 +901,10 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -981,10 +912,10 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -993,13 +924,10 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1007,10 +935,10 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1019,13 +947,10 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1033,10 +958,10 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1045,13 +970,10 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1059,10 +981,10 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1071,13 +993,10 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1085,10 +1004,10 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1097,13 +1016,10 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1111,10 +1027,10 @@
         <v>1</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1123,13 +1039,10 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1137,25 +1050,22 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>356.5851851851852</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1163,25 +1073,22 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1189,25 +1096,22 @@
         <v>1</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>2456.585185185185</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1215,25 +1119,22 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1241,25 +1142,22 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1018.533333333334</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1267,25 +1165,22 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1293,25 +1188,22 @@
         <v>1</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1319,25 +1211,22 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1345,25 +1234,22 @@
         <v>1</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1371,25 +1257,22 @@
         <v>1</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>1610.170255971747</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>1550.237037037038</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1397,25 +1280,22 @@
         <v>1</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>1629.982828840485</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1423,25 +1303,22 @@
         <v>1</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>1648.766680647578</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>152.6814814814817</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1449,25 +1326,22 @@
         <v>1</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>1666.574728687578</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>356.5851851851852</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1475,25 +1349,22 @@
         <v>1</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>1683.457168344148</v>
+        <v>0</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1501,25 +1372,22 @@
         <v>1</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>1699.461613097128</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>2139.511111111111</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1527,25 +1395,22 @@
         <v>1</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>1714.608502226656</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1553,25 +1418,22 @@
         <v>1</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>1728.941948444651</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>152.6814814814817</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>383.1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1579,25 +1441,22 @@
         <v>1</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>1742.528520535575</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>356.5851851851852</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>1110.6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1605,25 +1464,22 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>1755.40663841141</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>1426.340740740741</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1631,25 +1487,22 @@
         <v>1</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>1767.612745775989</v>
+        <v>0</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1657,25 +1510,22 @@
         <v>1</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>1995.697432386703</v>
       </c>
       <c r="E49">
-        <v>997.1855265952856</v>
+        <v>0</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1683,25 +1533,22 @@
         <v>1</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>1935.667747273448</v>
       </c>
       <c r="E50">
-        <v>1041.385968122859</v>
+        <v>0</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1709,25 +1556,22 @@
         <v>1</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>1877.443844875137</v>
       </c>
       <c r="E51">
-        <v>1081.457771684507</v>
+        <v>0</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1735,25 +1579,22 @@
         <v>1</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>1822.182958286726</v>
       </c>
       <c r="E52">
-        <v>1119.459247241093</v>
+        <v>0</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>54.9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1761,25 +1602,22 @@
         <v>1</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>1769.734271932793</v>
       </c>
       <c r="E53">
-        <v>1155.496889143251</v>
+        <v>356.5851851851852</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1787,25 +1625,22 @@
         <v>1</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>1719.954646653344</v>
       </c>
       <c r="E54">
-        <v>1189.671713984547</v>
+        <v>0</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1813,25 +1648,22 @@
         <v>1</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>1672.708228979224</v>
       </c>
       <c r="E55">
-        <v>1222.079542361257</v>
+        <v>300</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1839,25 +1671,22 @@
         <v>1</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>1626.653452145763</v>
       </c>
       <c r="E56">
-        <v>1250.814943870461</v>
+        <v>2552.681481481482</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1865,25 +1694,22 @@
         <v>1</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>1581.729661568238</v>
       </c>
       <c r="E57">
-        <v>1276.066793282484</v>
+        <v>300</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>155.1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1891,25 +1717,22 @@
         <v>1</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>1539.091918090548</v>
       </c>
       <c r="E58">
-        <v>1300.010572480858</v>
+        <v>3000</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1917,25 +1740,22 @@
         <v>1</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>1498.623863407659</v>
       </c>
       <c r="E59">
-        <v>1322.713567528325</v>
+        <v>3000</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>237.7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1943,25 +1763,22 @@
         <v>1</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>1460.215061777149</v>
       </c>
       <c r="E60">
-        <v>1344.239603489621</v>
+        <v>3000</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>187.3104394705829</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1969,25 +1786,22 @@
         <v>1</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>1423.760698564615</v>
       </c>
       <c r="E61">
-        <v>1364.649222455006</v>
+        <v>3000</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>212.5521973529143</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1995,25 +1809,22 @@
         <v>1</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>1385.040904497453</v>
       </c>
       <c r="E62">
-        <v>1376.408995553288</v>
+        <v>3000</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>211.2521973529143</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2021,25 +1832,22 @@
         <v>1</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>1344.170957081121</v>
       </c>
       <c r="E63">
-        <v>1379.963196424757</v>
+        <v>3000</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>1098.052197352914</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2047,25 +1855,22 @@
         <v>1</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>1305.3806559068</v>
       </c>
       <c r="E64">
-        <v>1383.324103629986</v>
+        <v>3000</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>544.4521973529143</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2073,25 +1878,22 @@
         <v>1</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>1268.564148341801</v>
       </c>
       <c r="E65">
-        <v>1386.501662793603</v>
+        <v>3000</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>576.5521973529143</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2099,25 +1901,22 @@
         <v>1</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>1233.620969584115</v>
       </c>
       <c r="E66">
-        <v>1389.505307965595</v>
+        <v>3000</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>375.3521973529143</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2125,25 +1924,22 @@
         <v>1</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>1200.455768425297</v>
       </c>
       <c r="E67">
-        <v>1392.343987935169</v>
+        <v>3000</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
       <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>212.5521973529143</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2151,25 +1947,22 @@
         <v>1</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>1165.226067791275</v>
       </c>
       <c r="E68">
-        <v>1388.025392593653</v>
+        <v>3000</v>
       </c>
       <c r="F68">
         <v>0</v>
       </c>
       <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2177,25 +1970,22 @@
         <v>1</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>1128.036918170676</v>
       </c>
       <c r="E69">
-        <v>1376.917030460424</v>
+        <v>3000</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2203,25 +1993,22 @@
         <v>1</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>1092.740002231636</v>
       </c>
       <c r="E70">
-        <v>1366.368305288688</v>
+        <v>3000</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
       <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>193.2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2229,25 +2016,22 @@
         <v>1</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>1059.239006521716</v>
       </c>
       <c r="E71">
-        <v>1356.350434549347</v>
+        <v>3000</v>
       </c>
       <c r="F71">
         <v>0</v>
       </c>
       <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>2413.7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2255,25 +2039,22 @@
         <v>1</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>1027.442519881038</v>
       </c>
       <c r="E72">
-        <v>1346.836116200899</v>
+        <v>3000</v>
       </c>
       <c r="F72">
         <v>0</v>
       </c>
       <c r="G72">
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>2200.56</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2281,25 +2062,22 @@
         <v>1</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>997.2637839187598</v>
       </c>
       <c r="E73">
-        <v>1337.799452537445</v>
+        <v>3000</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
       <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>1264.471318411749</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2307,25 +2085,22 @@
         <v>1</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>970.2358559240678</v>
       </c>
       <c r="E74">
-        <v>1331.851395860303</v>
+        <v>3000</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>510.9521973529143</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2333,25 +2108,22 @@
         <v>1</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>946.1983629605072</v>
       </c>
       <c r="E75">
-        <v>1328.833116277076</v>
+        <v>3000</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
       <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>341.5521973529143</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2359,25 +2131,22 @@
         <v>1</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>923.3836952365549</v>
       </c>
       <c r="E76">
-        <v>1325.958435719696</v>
+        <v>3000</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
       <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>225.6521973529143</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2385,25 +2154,22 @@
         <v>1</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>901.7296117572754</v>
       </c>
       <c r="E77">
-        <v>1323.219971398976</v>
+        <v>3000</v>
       </c>
       <c r="F77">
         <v>0</v>
       </c>
       <c r="G77">
-        <v>0</v>
-      </c>
-      <c r="H77">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>1036.552197352914</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2411,25 +2177,22 @@
         <v>1</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>881.1770395542228</v>
       </c>
       <c r="E78">
-        <v>1320.610720273623</v>
+        <v>3000</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
       <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="H78">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>212.5521973529143</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2437,25 +2200,22 @@
         <v>1</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>861.669912434877</v>
       </c>
       <c r="E79">
-        <v>1318.124039517125</v>
+        <v>3000</v>
       </c>
       <c r="F79">
         <v>0</v>
       </c>
       <c r="G79">
-        <v>0</v>
-      </c>
-      <c r="H79">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>229.5521973529143</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2463,25 +2223,22 @@
         <v>1</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>842.9017126905477</v>
       </c>
       <c r="E80">
-        <v>1315.228836627478</v>
+        <v>3000</v>
       </c>
       <c r="F80">
         <v>0</v>
       </c>
       <c r="G80">
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>233.9313184117486</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2489,25 +2246,22 @@
         <v>1</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>824.8348292373179</v>
       </c>
       <c r="E81">
-        <v>1311.946121246621</v>
+        <v>3000</v>
       </c>
       <c r="F81">
         <v>0</v>
       </c>
       <c r="G81">
-        <v>0</v>
-      </c>
-      <c r="H81">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>242.6521973529143</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2515,25 +2269,22 @@
         <v>1</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>809.5345657372263</v>
       </c>
       <c r="E82">
-        <v>1308.820613705177</v>
+        <v>3000</v>
       </c>
       <c r="F82">
         <v>0</v>
       </c>
       <c r="G82">
-        <v>0</v>
-      </c>
-      <c r="H82">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>811.9521973529143</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2541,25 +2292,22 @@
         <v>1</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>801.960997663457</v>
       </c>
       <c r="E83">
-        <v>1305.844231214428</v>
+        <v>2078.985185185188</v>
       </c>
       <c r="F83">
         <v>0</v>
       </c>
       <c r="G83">
-        <v>0</v>
-      </c>
-      <c r="H83">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>1850.552197352914</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2567,25 +2315,22 @@
         <v>1</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>801.7431693312744</v>
       </c>
       <c r="E84">
-        <v>1303.009306739432</v>
+        <v>356.5851851851852</v>
       </c>
       <c r="F84">
         <v>0</v>
       </c>
       <c r="G84">
-        <v>0</v>
-      </c>
-      <c r="H84">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>1759.552197352914</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2593,25 +2338,22 @@
         <v>1</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>800.2571312244015</v>
       </c>
       <c r="E85">
-        <v>1300.308567613911</v>
+        <v>0</v>
       </c>
       <c r="F85">
         <v>0</v>
       </c>
       <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="H85">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>1256.881694301984</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2619,25 +2361,22 @@
         <v>1</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>804.0730919646194</v>
       </c>
       <c r="E86">
-        <v>1304.776781859187</v>
+        <v>0</v>
       </c>
       <c r="F86">
         <v>0</v>
       </c>
       <c r="G86">
-        <v>0</v>
-      </c>
-      <c r="H86">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>333.3759397255878</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2645,25 +2384,22 @@
         <v>1</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>806.2436873859383</v>
       </c>
       <c r="E87">
-        <v>1316.045297753794</v>
+        <v>0</v>
       </c>
       <c r="F87">
         <v>0</v>
       </c>
       <c r="G87">
-        <v>0</v>
-      </c>
-      <c r="H87">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>582.9759397255878</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2671,25 +2407,22 @@
         <v>1</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>804.8791638134617</v>
       </c>
       <c r="E88">
-        <v>1326.722759302811</v>
+        <v>356.5851851851852</v>
       </c>
       <c r="F88">
         <v>0</v>
       </c>
       <c r="G88">
-        <v>0</v>
-      </c>
-      <c r="H88">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>1569.175939725588</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2697,25 +2430,22 @@
         <v>1</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>805.2117111972905</v>
       </c>
       <c r="E89">
-        <v>1336.839572059972</v>
+        <v>0</v>
       </c>
       <c r="F89">
         <v>0</v>
       </c>
       <c r="G89">
-        <v>0</v>
-      </c>
-      <c r="H89">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>2164.289401578548</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2723,25 +2453,22 @@
         <v>1</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>805.8406313957619</v>
       </c>
       <c r="E90">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G90">
-        <v>11000</v>
-      </c>
-      <c r="H90">
-        <v>218.7760986764571</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>1449.823742372673</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2749,25 +2476,22 @@
         <v>1</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>804.8086091531389</v>
       </c>
       <c r="E91">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>113.1703703703704</v>
+        <v>0</v>
       </c>
       <c r="G91">
-        <v>11000</v>
-      </c>
-      <c r="H91">
-        <v>424.5521973529143</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>326.1237423726735</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2775,25 +2499,22 @@
         <v>1</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>801.0598404814232</v>
       </c>
       <c r="E92">
-        <v>2000</v>
+        <v>1069.755555555556</v>
       </c>
       <c r="F92">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G92">
-        <v>11000</v>
-      </c>
-      <c r="H92">
-        <v>272.5521973529143</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>785.9823742372673</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2801,25 +2522,22 @@
         <v>1</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>801.4487355892186</v>
       </c>
       <c r="E93">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G93">
-        <v>11000</v>
-      </c>
-      <c r="H93">
-        <v>82.55219735291431</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>678.9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2827,25 +2545,22 @@
         <v>1</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>801.8171800330948</v>
       </c>
       <c r="E94">
-        <v>2000</v>
+        <v>356.5851851851852</v>
       </c>
       <c r="F94">
-        <v>135.6074074074077</v>
+        <v>0</v>
       </c>
       <c r="G94">
-        <v>7700</v>
-      </c>
-      <c r="H94">
-        <v>82.55219735291431</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>484.2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2853,25 +2568,22 @@
         <v>1</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>802.1662147586881</v>
       </c>
       <c r="E95">
-        <v>2000</v>
+        <v>1069.755555555556</v>
       </c>
       <c r="F95">
         <v>0</v>
       </c>
       <c r="G95">
-        <v>0</v>
-      </c>
-      <c r="H95">
-        <v>82.55219735291431</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>334.57</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2879,25 +2591,22 @@
         <v>1</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>802.4968277281801</v>
       </c>
       <c r="E96">
-        <v>2000</v>
+        <v>956.5851851851852</v>
       </c>
       <c r="F96">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="G96">
-        <v>0</v>
-      </c>
-      <c r="H96">
-        <v>82.55219735291431</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>2729.28</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -2905,25 +2614,22 @@
         <v>1</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>802.8099566171308</v>
       </c>
       <c r="E97">
-        <v>2000</v>
+        <v>1539.511111111111</v>
       </c>
       <c r="F97">
-        <v>752.6814814814818</v>
+        <v>0</v>
       </c>
       <c r="G97">
-        <v>0</v>
-      </c>
-      <c r="H97">
-        <v>57.31043947058286</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>2377.92</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2931,25 +2637,22 @@
         <v>1</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>803.4992257796376</v>
       </c>
       <c r="E98">
-        <v>2000</v>
+        <v>356.5851851851852</v>
       </c>
       <c r="F98">
-        <v>956.5851851851852</v>
+        <v>0</v>
       </c>
       <c r="G98">
-        <v>0</v>
-      </c>
-      <c r="H98">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>316.7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -2957,25 +2660,22 @@
         <v>1</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>804.5455187995686</v>
       </c>
       <c r="E99">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="F99">
-        <v>2026.340740740741</v>
+        <v>0</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-      <c r="H99">
-        <v>187.1552197352914</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>382.3413681354061</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -2983,25 +2683,22 @@
         <v>1</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>805.5379578675344</v>
       </c>
       <c r="E100">
-        <v>2000</v>
+        <v>826.3407407407409</v>
       </c>
       <c r="F100">
-        <v>1652.681481481482</v>
+        <v>0</v>
       </c>
       <c r="G100">
-        <v>0</v>
-      </c>
-      <c r="H100">
-        <v>386.5521973529143</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>438.5237423726735</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -3009,25 +2706,22 @@
         <v>1</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>806.4792841332064</v>
       </c>
       <c r="E101">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>356.5851851851852</v>
+        <v>0</v>
       </c>
       <c r="G101">
-        <v>0</v>
-      </c>
-      <c r="H101">
-        <v>326.8321973529143</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>384.2102805197135</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -3035,25 +2729,22 @@
         <v>1</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D102">
-        <v>1</v>
+        <v>807.3720992235167</v>
       </c>
       <c r="E102">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F102">
         <v>0</v>
       </c>
       <c r="G102">
-        <v>0</v>
-      </c>
-      <c r="H102">
-        <v>407.7321973529143</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>404.0759397255878</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -3061,25 +2752,22 @@
         <v>1</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>808.2188723442756</v>
       </c>
       <c r="E103">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="F103">
         <v>0</v>
       </c>
       <c r="G103">
-        <v>0</v>
-      </c>
-      <c r="H103">
-        <v>218.2521973529143</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>537.0759397255878</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -3087,25 +2775,22 @@
         <v>1</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>809.0219470202783</v>
       </c>
       <c r="E104">
-        <v>2000</v>
+        <v>2779.022222222223</v>
       </c>
       <c r="F104">
         <v>0</v>
       </c>
       <c r="G104">
-        <v>0</v>
-      </c>
-      <c r="H104">
-        <v>350.7321973529143</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>433.3759397255878</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -3113,25 +2798,22 @@
         <v>1</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>809.783547492441</v>
       </c>
       <c r="E105">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="G105">
-        <v>0</v>
-      </c>
-      <c r="H105">
-        <v>218.2521973529143</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>347.0759397255878</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -3139,25 +2821,22 @@
         <v>1</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>810.5057847892682</v>
       </c>
       <c r="E106">
-        <v>2000</v>
+        <v>356.5851851851852</v>
       </c>
       <c r="F106">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G106">
-        <v>0</v>
-      </c>
-      <c r="H106">
-        <v>218.2521973529143</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>347.0759397255878</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -3165,25 +2844,22 @@
         <v>1</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>811.1906624892413</v>
       </c>
       <c r="E107">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>1092.192592592593</v>
+        <v>0</v>
       </c>
       <c r="G107">
-        <v>0</v>
-      </c>
-      <c r="H107">
-        <v>202.4760986764571</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>336.8264745666923</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -3191,25 +2867,22 @@
         <v>1</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>811.840082190014</v>
       </c>
       <c r="E108">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G108">
-        <v>0</v>
-      </c>
-      <c r="H108">
-        <v>319.7</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>391.7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -3217,25 +2890,22 @@
         <v>1</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>812.4558486991419</v>
       </c>
       <c r="E109">
-        <v>2000</v>
+        <v>356.5851851851852</v>
       </c>
       <c r="F109">
-        <v>413.1703703703704</v>
+        <v>0</v>
       </c>
       <c r="G109">
-        <v>0</v>
-      </c>
-      <c r="H109">
-        <v>433.7</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>420.7942454236041</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -3243,25 +2913,22 @@
         <v>1</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>813.0396749606406</v>
       </c>
       <c r="E110">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G110">
-        <v>0</v>
-      </c>
-      <c r="H110">
-        <v>376.7</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>326.5237423726735</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -3269,25 +2936,22 @@
         <v>1</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>813.5931867307704</v>
       </c>
       <c r="E111">
-        <v>2000</v>
+        <v>356.5851851851852</v>
       </c>
       <c r="F111">
-        <v>1652.681481481482</v>
+        <v>0</v>
       </c>
       <c r="G111">
-        <v>0</v>
-      </c>
-      <c r="H111">
-        <v>422.7417578823315</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>401.265500255005</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -3295,25 +2959,22 @@
         <v>1</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>814.1179270158547</v>
       </c>
       <c r="E112">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F112">
         <v>0</v>
       </c>
       <c r="G112">
-        <v>0</v>
-      </c>
-      <c r="H112">
-        <v>348.3521973529143</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>563.0759397255878</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -3321,25 +2982,22 @@
         <v>1</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D113">
-        <v>1</v>
+        <v>814.6153602841878</v>
       </c>
       <c r="E113">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>356.5851851851852</v>
+        <v>0</v>
       </c>
       <c r="G113">
-        <v>0</v>
-      </c>
-      <c r="H113">
-        <v>352.2521973529143</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>658.0759397255878</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -3347,25 +3005,22 @@
         <v>1</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D114">
-        <v>1</v>
+        <v>815.0868764635902</v>
       </c>
       <c r="E114">
-        <v>2000</v>
+        <v>713.1703703703704</v>
       </c>
       <c r="F114">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G114">
-        <v>0</v>
-      </c>
-      <c r="H114">
-        <v>352.2521973529143</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>601.0759397255878</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -3373,25 +3028,22 @@
         <v>1</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D115">
-        <v>1</v>
+        <v>815.533794735427</v>
       </c>
       <c r="E115">
-        <v>1996.923122398624</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G115">
-        <v>0</v>
-      </c>
-      <c r="H115">
-        <v>517.8521973529143</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>468.0759397255878</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -3399,25 +3051,22 @@
         <v>1</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D116">
-        <v>1</v>
+        <v>815.9573671356043</v>
       </c>
       <c r="E116">
-        <v>1993.639740457485</v>
+        <v>1013.17037037037</v>
       </c>
       <c r="F116">
-        <v>1561.948148148149</v>
+        <v>0</v>
       </c>
       <c r="G116">
-        <v>0</v>
-      </c>
-      <c r="H116">
-        <v>356.9816943019837</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>564.4759397255878</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -3425,25 +3074,22 @@
         <v>1</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>816.3587819721783</v>
       </c>
       <c r="E117">
-        <v>1990.514740645256</v>
+        <v>56.58518518518522</v>
       </c>
       <c r="F117">
         <v>0</v>
       </c>
       <c r="G117">
-        <v>0</v>
-      </c>
-      <c r="H117">
-        <v>487.6102805197135</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>700.0759397255878</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -3451,25 +3097,22 @@
         <v>1</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>816.739167069136</v>
       </c>
       <c r="E118">
-        <v>1987.539979426037</v>
+        <v>2100</v>
       </c>
       <c r="F118">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G118">
-        <v>0</v>
-      </c>
-      <c r="H118">
-        <v>601.955060784422</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>617.5759397255878</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -3477,25 +3120,22 @@
         <v>1</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>817.0995928449089</v>
       </c>
       <c r="E119">
-        <v>1984.707732142476</v>
+        <v>752.6814814814818</v>
       </c>
       <c r="F119">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G119">
-        <v>0</v>
-      </c>
-      <c r="H119">
-        <v>663.3759397255878</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>469.0759397255878</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -3503,25 +3143,22 @@
         <v>1</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>817.441075234342</v>
       </c>
       <c r="E120">
-        <v>1982.010671469931</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G120">
-        <v>0</v>
-      </c>
-      <c r="H120">
-        <v>643.0759397255878</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>541.6759397255878</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -3529,25 +3166,22 @@
         <v>1</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>817.7645784618505</v>
       </c>
       <c r="E121">
-        <v>1979.441846978784</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>1188.28888888889</v>
+        <v>0</v>
       </c>
       <c r="G121">
-        <v>0</v>
-      </c>
-      <c r="H121">
-        <v>604.5559397255877</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>591.3759397255878</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -3555,25 +3189,22 @@
         <v>1</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>818.0710176734408</v>
       </c>
       <c r="E122">
-        <v>1976.994665748135</v>
+        <v>2139.511111111111</v>
       </c>
       <c r="F122">
-        <v>713.1703703703704</v>
+        <v>0</v>
       </c>
       <c r="G122">
-        <v>0</v>
-      </c>
-      <c r="H122">
-        <v>472.0759397255878</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>736.0759397255878</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -3581,25 +3212,22 @@
         <v>1</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D123">
-        <v>1</v>
+        <v>818.3612614347852</v>
       </c>
       <c r="E123">
-        <v>1974.662873976536</v>
+        <v>2700</v>
       </c>
       <c r="F123">
         <v>0</v>
       </c>
       <c r="G123">
-        <v>0</v>
-      </c>
-      <c r="H123">
-        <v>472.0759397255878</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>793.0759397255878</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -3607,25 +3235,22 @@
         <v>1</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D124">
-        <v>1</v>
+        <v>818.6361341021211</v>
       </c>
       <c r="E124">
-        <v>1972.440539538763</v>
+        <v>509.266666666667</v>
       </c>
       <c r="F124">
         <v>0</v>
       </c>
       <c r="G124">
-        <v>0</v>
-      </c>
-      <c r="H124">
-        <v>468.5288170137858</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>698.0759397255878</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -3633,25 +3258,22 @@
         <v>1</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D125">
-        <v>1</v>
+        <v>818.8964180724838</v>
       </c>
       <c r="E125">
-        <v>1970.322035439654</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>356.5851851851852</v>
+        <v>0</v>
       </c>
       <c r="G125">
-        <v>0</v>
-      </c>
-      <c r="H125">
-        <v>456.4288170137858</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>647.0759397255878</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -3659,25 +3281,22 @@
         <v>1</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>819.1428559194094</v>
       </c>
       <c r="E126">
-        <v>1968.302024119191</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>356.5851851851852</v>
+        <v>0</v>
       </c>
       <c r="G126">
-        <v>0</v>
-      </c>
-      <c r="H126">
-        <v>605.0759397255878</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>700.9759397255878</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -3685,25 +3304,22 @@
         <v>1</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D127">
-        <v>1</v>
+        <v>819.3761524199147</v>
       </c>
       <c r="E127">
-        <v>1966.37544256476</v>
+        <v>356.5851851851852</v>
       </c>
       <c r="F127">
         <v>0</v>
       </c>
       <c r="G127">
-        <v>0</v>
-      </c>
-      <c r="H127">
-        <v>617.7655002550049</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>573.3759397255877</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -3711,25 +3327,22 @@
         <v>1</v>
       </c>
       <c r="C128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D128">
-        <v>1</v>
+        <v>819.8885004086378</v>
       </c>
       <c r="E128">
-        <v>1965.730585617547</v>
+        <v>2400</v>
       </c>
       <c r="F128">
         <v>0</v>
       </c>
       <c r="G128">
-        <v>0</v>
-      </c>
-      <c r="H128">
-        <v>614.6789621079649</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>583.3998410491306</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -3737,25 +3350,22 @@
         <v>1</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D129">
-        <v>1</v>
+        <v>820.6657251530714</v>
       </c>
       <c r="E129">
-        <v>1966.302094078083</v>
+        <v>3000</v>
       </c>
       <c r="F129">
-        <v>356.5851851851852</v>
+        <v>0</v>
       </c>
       <c r="G129">
-        <v>0</v>
-      </c>
-      <c r="H129">
-        <v>794.5559397255877</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>586.9207199902963</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -3763,25 +3373,22 @@
         <v>1</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D130">
-        <v>1</v>
+        <v>821.4028494742763</v>
       </c>
       <c r="E130">
-        <v>1966.834873031564</v>
+        <v>3000</v>
       </c>
       <c r="F130">
-        <v>356.5851851851852</v>
+        <v>0</v>
       </c>
       <c r="G130">
-        <v>0</v>
-      </c>
-      <c r="H130">
-        <v>642.5559397255877</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>722.5559397255877</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -3789,25 +3396,22 @@
         <v>1</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D131">
-        <v>1</v>
+        <v>822.1019144744105</v>
       </c>
       <c r="E131">
-        <v>1967.330917430258</v>
+        <v>2314.62962962963</v>
       </c>
       <c r="F131">
         <v>0</v>
       </c>
       <c r="G131">
-        <v>0</v>
-      </c>
-      <c r="H131">
-        <v>592.4559397255878</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>590.0759397255878</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -3815,25 +3419,22 @@
         <v>1</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D132">
-        <v>1</v>
+        <v>822.7648573648594</v>
       </c>
       <c r="E132">
-        <v>1967.792119611067</v>
+        <v>1052.681481481482</v>
       </c>
       <c r="F132">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G132">
-        <v>0</v>
-      </c>
-      <c r="H132">
-        <v>481.1759397255879</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>772.5559397255877</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -3841,25 +3442,22 @@
         <v>1</v>
       </c>
       <c r="C133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D133">
-        <v>1</v>
+        <v>823.3935167541971</v>
       </c>
       <c r="E133">
-        <v>1968.220274573798</v>
+        <v>0</v>
       </c>
       <c r="F133">
-        <v>2852.681481481482</v>
+        <v>0</v>
       </c>
       <c r="G133">
-        <v>0</v>
-      </c>
-      <c r="H133">
-        <v>485.0759397255878</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>659.0759397255878</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -3867,25 +3465,22 @@
         <v>1</v>
       </c>
       <c r="C134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D134">
-        <v>153.0021847972939</v>
+        <v>823.9896376670004</v>
       </c>
       <c r="E134">
-        <v>1968.617084987892</v>
+        <v>356.5851851851852</v>
       </c>
       <c r="F134">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G134">
-        <v>0</v>
-      </c>
-      <c r="H134">
-        <v>485.0759397255878</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>603.0759397255878</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -3893,25 +3488,22 @@
         <v>1</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D135">
-        <v>293.4121663066636</v>
+        <v>824.5548763072522</v>
       </c>
       <c r="E135">
-        <v>1968.984165941595</v>
+        <v>300</v>
       </c>
       <c r="F135">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G135">
-        <v>0</v>
-      </c>
-      <c r="H135">
-        <v>618.0759397255878</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>639.5759397255878</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -3919,25 +3511,22 @@
         <v>1</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D136">
-        <v>609.894373715248</v>
+        <v>825.0908045791788</v>
       </c>
       <c r="E136">
-        <v>1969.323049446905</v>
+        <v>1839.511111111111</v>
       </c>
       <c r="F136">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G136">
-        <v>0</v>
-      </c>
-      <c r="H136">
-        <v>637.0759397255878</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>772.9464427765184</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -3945,25 +3534,22 @@
         <v>1</v>
       </c>
       <c r="C137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D137">
-        <v>758.9226562431872</v>
+        <v>825.5989143781165</v>
       </c>
       <c r="E137">
-        <v>1969.635188712778</v>
+        <v>356.5851851851852</v>
       </c>
       <c r="F137">
-        <v>1810.725925925927</v>
+        <v>0</v>
       </c>
       <c r="G137">
-        <v>0</v>
-      </c>
-      <c r="H137">
-        <v>599.0759397255878</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>578.2521973529143</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -3971,25 +3557,22 @@
         <v>1</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D138">
-        <v>129.6672844742213</v>
+        <v>826.0806216628964</v>
       </c>
       <c r="E138">
-        <v>1969.921962198498</v>
+        <v>0</v>
       </c>
       <c r="F138">
         <v>0</v>
       </c>
       <c r="G138">
-        <v>0</v>
-      </c>
-      <c r="H138">
-        <v>668.5759397255878</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>571.9417578823314</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -3997,25 +3580,22 @@
         <v>1</v>
       </c>
       <c r="C139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D139">
-        <v>182.9617703426869</v>
+        <v>0</v>
       </c>
       <c r="E139">
-        <v>1970.184677458604</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="G139">
-        <v>0</v>
-      </c>
-      <c r="H139">
-        <v>446.0759397255878</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>558.5237423726735</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -4023,25 +3603,22 @@
         <v>1</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D140">
-        <v>151.2981128899683</v>
+        <v>0</v>
       </c>
       <c r="E140">
         <v>0</v>
       </c>
       <c r="F140">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G140">
-        <v>0</v>
-      </c>
-      <c r="H140">
-        <v>351.0759397255878</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>558.5237423726735</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -4049,25 +3626,22 @@
         <v>1</v>
       </c>
       <c r="C141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D141">
-        <v>1207.240075258993</v>
+        <v>0</v>
       </c>
       <c r="E141">
         <v>0</v>
       </c>
       <c r="F141">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G141">
-        <v>0</v>
-      </c>
-      <c r="H141">
-        <v>351.0759397255878</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>553.3237423726735</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -4075,25 +3649,22 @@
         <v>1</v>
       </c>
       <c r="C142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D142">
-        <v>1237.693512269774</v>
+        <v>0</v>
       </c>
       <c r="E142">
         <v>0</v>
       </c>
       <c r="F142">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G142">
-        <v>0</v>
-      </c>
-      <c r="H142">
-        <v>447.8759397255878</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>627.5237423726735</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -4101,25 +3672,22 @@
         <v>1</v>
       </c>
       <c r="C143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D143">
-        <v>199.250319283886</v>
+        <v>0</v>
       </c>
       <c r="E143">
         <v>0</v>
       </c>
       <c r="F143">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G143">
-        <v>0</v>
-      </c>
-      <c r="H143">
-        <v>472.0759397255878</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>737.5237423726735</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -4127,25 +3695,22 @@
         <v>1</v>
       </c>
       <c r="C144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D144">
-        <v>108.584046685921</v>
+        <v>0</v>
       </c>
       <c r="E144">
         <v>0</v>
       </c>
       <c r="F144">
-        <v>2076.577777777779</v>
+        <v>0</v>
       </c>
       <c r="G144">
-        <v>0</v>
-      </c>
-      <c r="H144">
-        <v>508.2759397255878</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>548.4294969490694</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -4153,10 +3718,10 @@
         <v>1</v>
       </c>
       <c r="C145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D145">
-        <v>121.2315887887831</v>
+        <v>0</v>
       </c>
       <c r="E145">
         <v>0</v>
@@ -4165,13 +3730,10 @@
         <v>0</v>
       </c>
       <c r="G145">
-        <v>0</v>
-      </c>
-      <c r="H145">
-        <v>503.0759397255878</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>413.5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -4179,10 +3741,10 @@
         <v>1</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D146">
-        <v>375.6038300540812</v>
+        <v>0</v>
       </c>
       <c r="E146">
         <v>0</v>
@@ -4191,13 +3753,10 @@
         <v>0</v>
       </c>
       <c r="G146">
-        <v>0</v>
-      </c>
-      <c r="H146">
-        <v>408.0759397255878</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>303.7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -4205,10 +3764,10 @@
         <v>1</v>
       </c>
       <c r="C147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D147">
-        <v>670.0689026328338</v>
+        <v>0</v>
       </c>
       <c r="E147">
         <v>0</v>
@@ -4217,13 +3776,10 @@
         <v>0</v>
       </c>
       <c r="G147">
-        <v>0</v>
-      </c>
-      <c r="H147">
-        <v>541.0759397255878</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>182.7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -4231,10 +3787,10 @@
         <v>1</v>
       </c>
       <c r="C148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D148">
-        <v>728.3252019610476</v>
+        <v>0</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -4243,13 +3799,10 @@
         <v>0</v>
       </c>
       <c r="G148">
-        <v>0</v>
-      </c>
-      <c r="H148">
-        <v>503.0759397255878</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>182.7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -4257,10 +3810,10 @@
         <v>1</v>
       </c>
       <c r="C149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E149">
         <v>0</v>
@@ -4269,13 +3822,10 @@
         <v>0</v>
       </c>
       <c r="G149">
-        <v>0</v>
-      </c>
-      <c r="H149">
-        <v>242.4521973529143</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>182.7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -4283,10 +3833,10 @@
         <v>1</v>
       </c>
       <c r="C150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E150">
         <v>0</v>
@@ -4295,13 +3845,10 @@
         <v>0</v>
       </c>
       <c r="G150">
-        <v>0</v>
-      </c>
-      <c r="H150">
-        <v>218.2521973529143</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>182.7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -4309,10 +3856,10 @@
         <v>1</v>
       </c>
       <c r="C151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E151">
         <v>0</v>
@@ -4321,13 +3868,10 @@
         <v>0</v>
       </c>
       <c r="G151">
-        <v>0</v>
-      </c>
-      <c r="H151">
-        <v>205.6313184117486</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>272.7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -4335,10 +3879,10 @@
         <v>1</v>
       </c>
       <c r="C152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E152">
         <v>0</v>
@@ -4347,13 +3891,10 @@
         <v>0</v>
       </c>
       <c r="G152">
-        <v>0</v>
-      </c>
-      <c r="H152">
-        <v>186.7</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>482.7</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -4361,10 +3902,10 @@
         <v>1</v>
       </c>
       <c r="C153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E153">
         <v>0</v>
@@ -4373,13 +3914,10 @@
         <v>0</v>
       </c>
       <c r="G153">
-        <v>0</v>
-      </c>
-      <c r="H153">
-        <v>319.7</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>419.7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -4387,10 +3925,10 @@
         <v>1</v>
       </c>
       <c r="C154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E154">
         <v>0</v>
@@ -4399,13 +3937,10 @@
         <v>0</v>
       </c>
       <c r="G154">
-        <v>0</v>
-      </c>
-      <c r="H154">
-        <v>338.7</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>182.7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -4413,10 +3948,10 @@
         <v>1</v>
       </c>
       <c r="C155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -4425,13 +3960,10 @@
         <v>0</v>
       </c>
       <c r="G155">
-        <v>0</v>
-      </c>
-      <c r="H155">
-        <v>186.7</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>182.7</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -4439,10 +3971,10 @@
         <v>1</v>
       </c>
       <c r="C156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E156">
         <v>0</v>
@@ -4451,13 +3983,10 @@
         <v>0</v>
       </c>
       <c r="G156">
-        <v>0</v>
-      </c>
-      <c r="H156">
-        <v>376.7</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>155.56</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -4465,10 +3994,10 @@
         <v>1</v>
       </c>
       <c r="C157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E157">
         <v>0</v>
@@ -4477,13 +4006,10 @@
         <v>0</v>
       </c>
       <c r="G157">
-        <v>0</v>
-      </c>
-      <c r="H157">
-        <v>376.7</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -4491,10 +4017,10 @@
         <v>1</v>
       </c>
       <c r="C158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E158">
         <v>0</v>
@@ -4503,13 +4029,10 @@
         <v>0</v>
       </c>
       <c r="G158">
-        <v>0</v>
-      </c>
-      <c r="H158">
-        <v>205.7</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -4517,10 +4040,10 @@
         <v>1</v>
       </c>
       <c r="C159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E159">
         <v>0</v>
@@ -4529,13 +4052,10 @@
         <v>0</v>
       </c>
       <c r="G159">
-        <v>0</v>
-      </c>
-      <c r="H159">
-        <v>186.7</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -4543,10 +4063,10 @@
         <v>1</v>
       </c>
       <c r="C160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E160">
         <v>0</v>
@@ -4555,13 +4075,10 @@
         <v>0</v>
       </c>
       <c r="G160">
-        <v>0</v>
-      </c>
-      <c r="H160">
-        <v>186.7</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -4569,10 +4086,10 @@
         <v>1</v>
       </c>
       <c r="C161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E161">
         <v>0</v>
@@ -4581,13 +4098,10 @@
         <v>0</v>
       </c>
       <c r="G161">
-        <v>0</v>
-      </c>
-      <c r="H161">
-        <v>159.56</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -4595,10 +4109,10 @@
         <v>1</v>
       </c>
       <c r="C162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E162">
         <v>0</v>
@@ -4607,13 +4121,10 @@
         <v>0</v>
       </c>
       <c r="G162">
-        <v>0</v>
-      </c>
-      <c r="H162">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -4621,10 +4132,10 @@
         <v>1</v>
       </c>
       <c r="C163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E163">
         <v>0</v>
@@ -4633,13 +4144,10 @@
         <v>0</v>
       </c>
       <c r="G163">
-        <v>0</v>
-      </c>
-      <c r="H163">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -4647,10 +4155,10 @@
         <v>1</v>
       </c>
       <c r="C164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E164">
         <v>0</v>
@@ -4659,13 +4167,10 @@
         <v>0</v>
       </c>
       <c r="G164">
-        <v>0</v>
-      </c>
-      <c r="H164">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -4673,10 +4178,10 @@
         <v>1</v>
       </c>
       <c r="C165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E165">
         <v>0</v>
@@ -4685,13 +4190,10 @@
         <v>0</v>
       </c>
       <c r="G165">
-        <v>0</v>
-      </c>
-      <c r="H165">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -4699,10 +4201,10 @@
         <v>1</v>
       </c>
       <c r="C166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E166">
         <v>0</v>
@@ -4711,13 +4213,10 @@
         <v>0</v>
       </c>
       <c r="G166">
-        <v>0</v>
-      </c>
-      <c r="H166">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -4725,10 +4224,10 @@
         <v>1</v>
       </c>
       <c r="C167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E167">
         <v>0</v>
@@ -4737,13 +4236,10 @@
         <v>0</v>
       </c>
       <c r="G167">
-        <v>0</v>
-      </c>
-      <c r="H167">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -4751,10 +4247,10 @@
         <v>1</v>
       </c>
       <c r="C168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E168">
         <v>0</v>
@@ -4763,13 +4259,10 @@
         <v>0</v>
       </c>
       <c r="G168">
-        <v>0</v>
-      </c>
-      <c r="H168">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -4777,10 +4270,10 @@
         <v>1</v>
       </c>
       <c r="C169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E169">
         <v>0</v>
@@ -4789,13 +4282,10 @@
         <v>0</v>
       </c>
       <c r="G169">
-        <v>0</v>
-      </c>
-      <c r="H169">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -4803,10 +4293,10 @@
         <v>1</v>
       </c>
       <c r="C170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E170">
         <v>0</v>
@@ -4815,13 +4305,10 @@
         <v>0</v>
       </c>
       <c r="G170">
-        <v>0</v>
-      </c>
-      <c r="H170">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -4829,10 +4316,10 @@
         <v>1</v>
       </c>
       <c r="C171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E171">
         <v>0</v>
@@ -4841,13 +4328,10 @@
         <v>0</v>
       </c>
       <c r="G171">
-        <v>0</v>
-      </c>
-      <c r="H171">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -4855,10 +4339,10 @@
         <v>1</v>
       </c>
       <c r="C172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E172">
         <v>0</v>
@@ -4867,13 +4351,10 @@
         <v>0</v>
       </c>
       <c r="G172">
-        <v>0</v>
-      </c>
-      <c r="H172">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -4881,10 +4362,10 @@
         <v>1</v>
       </c>
       <c r="C173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E173">
         <v>0</v>
@@ -4893,13 +4374,10 @@
         <v>0</v>
       </c>
       <c r="G173">
-        <v>0</v>
-      </c>
-      <c r="H173">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -4907,10 +4385,10 @@
         <v>1</v>
       </c>
       <c r="C174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E174">
         <v>0</v>
@@ -4919,13 +4397,10 @@
         <v>0</v>
       </c>
       <c r="G174">
-        <v>0</v>
-      </c>
-      <c r="H174">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -4933,10 +4408,10 @@
         <v>1</v>
       </c>
       <c r="C175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E175">
         <v>0</v>
@@ -4945,13 +4420,10 @@
         <v>0</v>
       </c>
       <c r="G175">
-        <v>0</v>
-      </c>
-      <c r="H175">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -4959,10 +4431,10 @@
         <v>1</v>
       </c>
       <c r="C176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E176">
         <v>0</v>
@@ -4971,13 +4443,10 @@
         <v>0</v>
       </c>
       <c r="G176">
-        <v>0</v>
-      </c>
-      <c r="H176">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -4985,10 +4454,10 @@
         <v>1</v>
       </c>
       <c r="C177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E177">
         <v>0</v>
@@ -4997,13 +4466,10 @@
         <v>0</v>
       </c>
       <c r="G177">
-        <v>0</v>
-      </c>
-      <c r="H177">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -5011,10 +4477,10 @@
         <v>1</v>
       </c>
       <c r="C178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E178">
         <v>0</v>
@@ -5023,13 +4489,10 @@
         <v>0</v>
       </c>
       <c r="G178">
-        <v>0</v>
-      </c>
-      <c r="H178">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -5037,10 +4500,10 @@
         <v>1</v>
       </c>
       <c r="C179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E179">
         <v>0</v>
@@ -5049,13 +4512,10 @@
         <v>0</v>
       </c>
       <c r="G179">
-        <v>0</v>
-      </c>
-      <c r="H179">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -5063,10 +4523,10 @@
         <v>1</v>
       </c>
       <c r="C180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E180">
         <v>0</v>
@@ -5075,13 +4535,10 @@
         <v>0</v>
       </c>
       <c r="G180">
-        <v>0</v>
-      </c>
-      <c r="H180">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -5089,10 +4546,10 @@
         <v>1</v>
       </c>
       <c r="C181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E181">
         <v>0</v>
@@ -5101,13 +4558,10 @@
         <v>0</v>
       </c>
       <c r="G181">
-        <v>0</v>
-      </c>
-      <c r="H181">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -5115,10 +4569,10 @@
         <v>1</v>
       </c>
       <c r="C182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E182">
         <v>0</v>
@@ -5127,13 +4581,10 @@
         <v>0</v>
       </c>
       <c r="G182">
-        <v>0</v>
-      </c>
-      <c r="H182">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -5141,10 +4592,10 @@
         <v>1</v>
       </c>
       <c r="C183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E183">
         <v>0</v>
@@ -5153,13 +4604,10 @@
         <v>0</v>
       </c>
       <c r="G183">
-        <v>0</v>
-      </c>
-      <c r="H183">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -5167,10 +4615,10 @@
         <v>1</v>
       </c>
       <c r="C184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E184">
         <v>0</v>
@@ -5179,13 +4627,10 @@
         <v>0</v>
       </c>
       <c r="G184">
-        <v>0</v>
-      </c>
-      <c r="H184">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -5193,10 +4638,10 @@
         <v>1</v>
       </c>
       <c r="C185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E185">
         <v>0</v>
@@ -5205,13 +4650,10 @@
         <v>0</v>
       </c>
       <c r="G185">
-        <v>0</v>
-      </c>
-      <c r="H185">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -5219,10 +4661,10 @@
         <v>1</v>
       </c>
       <c r="C186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E186">
         <v>0</v>
@@ -5231,13 +4673,10 @@
         <v>0</v>
       </c>
       <c r="G186">
-        <v>0</v>
-      </c>
-      <c r="H186">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -5245,10 +4684,10 @@
         <v>1</v>
       </c>
       <c r="C187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E187">
         <v>0</v>
@@ -5257,13 +4696,10 @@
         <v>0</v>
       </c>
       <c r="G187">
-        <v>0</v>
-      </c>
-      <c r="H187">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -5271,10 +4707,10 @@
         <v>1</v>
       </c>
       <c r="C188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E188">
         <v>0</v>
@@ -5283,13 +4719,10 @@
         <v>0</v>
       </c>
       <c r="G188">
-        <v>0</v>
-      </c>
-      <c r="H188">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -5297,10 +4730,10 @@
         <v>1</v>
       </c>
       <c r="C189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E189">
         <v>0</v>
@@ -5309,13 +4742,10 @@
         <v>0</v>
       </c>
       <c r="G189">
-        <v>0</v>
-      </c>
-      <c r="H189">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -5323,10 +4753,10 @@
         <v>1</v>
       </c>
       <c r="C190">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E190">
         <v>0</v>
@@ -5335,13 +4765,10 @@
         <v>0</v>
       </c>
       <c r="G190">
-        <v>0</v>
-      </c>
-      <c r="H190">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -5349,10 +4776,10 @@
         <v>1</v>
       </c>
       <c r="C191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E191">
         <v>0</v>
@@ -5361,13 +4788,10 @@
         <v>0</v>
       </c>
       <c r="G191">
-        <v>0</v>
-      </c>
-      <c r="H191">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -5375,10 +4799,10 @@
         <v>1</v>
       </c>
       <c r="C192">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E192">
         <v>0</v>
@@ -5387,13 +4811,10 @@
         <v>0</v>
       </c>
       <c r="G192">
-        <v>0</v>
-      </c>
-      <c r="H192">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -5401,10 +4822,10 @@
         <v>1</v>
       </c>
       <c r="C193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E193">
         <v>0</v>
@@ -5413,13 +4834,10 @@
         <v>0</v>
       </c>
       <c r="G193">
-        <v>0</v>
-      </c>
-      <c r="H193">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -5427,10 +4845,10 @@
         <v>1</v>
       </c>
       <c r="C194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E194">
         <v>0</v>
@@ -5439,13 +4857,10 @@
         <v>0</v>
       </c>
       <c r="G194">
-        <v>0</v>
-      </c>
-      <c r="H194">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -5453,25 +4868,22 @@
         <v>1</v>
       </c>
       <c r="C195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E195">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F195">
-        <v>713.1703703703704</v>
+        <v>0</v>
       </c>
       <c r="G195">
-        <v>0</v>
-      </c>
-      <c r="H195">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -5479,25 +4891,22 @@
         <v>1</v>
       </c>
       <c r="C196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E196">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F196">
-        <v>356.5851851851852</v>
+        <v>0</v>
       </c>
       <c r="G196">
-        <v>0</v>
-      </c>
-      <c r="H196">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -5505,25 +4914,22 @@
         <v>1</v>
       </c>
       <c r="C197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D197">
-        <v>1</v>
+        <v>1449.279673829619</v>
       </c>
       <c r="E197">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="F197">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G197">
-        <v>0</v>
-      </c>
-      <c r="H197">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>71.56999999999999</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -5531,25 +4937,22 @@
         <v>1</v>
       </c>
       <c r="C198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D198">
-        <v>1</v>
+        <v>1416.607333372139</v>
       </c>
       <c r="E198">
-        <v>2000</v>
+        <v>1839.511111111111</v>
       </c>
       <c r="F198">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="G198">
-        <v>0</v>
-      </c>
-      <c r="H198">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>182.7</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -5557,25 +4960,22 @@
         <v>1</v>
       </c>
       <c r="C199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D199">
-        <v>1</v>
+        <v>1385.597396057927</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>2139.511111111111</v>
       </c>
       <c r="F199">
-        <v>79.02222222222262</v>
+        <v>0</v>
       </c>
       <c r="G199">
-        <v>0</v>
-      </c>
-      <c r="H199">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>182.7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -5583,10 +4983,10 @@
         <v>1</v>
       </c>
       <c r="C200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D200">
-        <v>1</v>
+        <v>1356.141540252452</v>
       </c>
       <c r="E200">
         <v>0</v>
@@ -5595,13 +4995,10 @@
         <v>0</v>
       </c>
       <c r="G200">
-        <v>0</v>
-      </c>
-      <c r="H200">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>239.7</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -5609,25 +5006,22 @@
         <v>1</v>
       </c>
       <c r="C201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D201">
-        <v>1</v>
+        <v>1328.160664211737</v>
       </c>
       <c r="E201">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F201">
         <v>0</v>
       </c>
       <c r="G201">
-        <v>0</v>
-      </c>
-      <c r="H201">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>375.3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -5635,25 +5029,22 @@
         <v>1</v>
       </c>
       <c r="C202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D202">
-        <v>1</v>
+        <v>1301.603398825438</v>
       </c>
       <c r="E202">
-        <v>2000</v>
+        <v>356.5851851851852</v>
       </c>
       <c r="F202">
-        <v>713.1703703703704</v>
+        <v>0</v>
       </c>
       <c r="G202">
-        <v>0</v>
-      </c>
-      <c r="H202">
-        <v>385.9</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>366.7</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -5661,25 +5052,22 @@
         <v>1</v>
       </c>
       <c r="C203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D203">
-        <v>1</v>
+        <v>1276.397283248485</v>
       </c>
       <c r="E203">
-        <v>2000</v>
+        <v>1013.17037037037</v>
       </c>
       <c r="F203">
-        <v>356.5851851851852</v>
+        <v>0</v>
       </c>
       <c r="G203">
-        <v>0</v>
-      </c>
-      <c r="H203">
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>206.7</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -5687,25 +5075,22 @@
         <v>1</v>
       </c>
       <c r="C204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D204">
-        <v>1</v>
+        <v>1252.473544846055</v>
       </c>
       <c r="E204">
-        <v>2000</v>
+        <v>769.7555555555557</v>
       </c>
       <c r="F204">
         <v>0</v>
       </c>
       <c r="G204">
-        <v>0</v>
-      </c>
-      <c r="H204">
-        <v>1604.4</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+        <v>305.7</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -5713,25 +5098,22 @@
         <v>1</v>
       </c>
       <c r="C205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D205">
-        <v>1</v>
+        <v>1229.766911466049</v>
       </c>
       <c r="E205">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F205">
         <v>0</v>
       </c>
       <c r="G205">
-        <v>0</v>
-      </c>
-      <c r="H205">
-        <v>73.27609867645715</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>283.7</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -5739,25 +5121,22 @@
         <v>1</v>
       </c>
       <c r="C206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D206">
-        <v>1</v>
+        <v>1205.685565550402</v>
       </c>
       <c r="E206">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F206">
-        <v>356.5851851851852</v>
+        <v>0</v>
       </c>
       <c r="G206">
-        <v>0</v>
-      </c>
-      <c r="H206">
-        <v>95.55219735291431</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>1160.9</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -5765,25 +5144,22 @@
         <v>1</v>
       </c>
       <c r="C207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D207">
-        <v>1</v>
+        <v>1180.299477321017</v>
       </c>
       <c r="E207">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F207">
-        <v>356.5851851851852</v>
+        <v>0</v>
       </c>
       <c r="G207">
-        <v>0</v>
-      </c>
-      <c r="H207">
-        <v>228.5521973529143</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>187.9</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -5791,25 +5167,22 @@
         <v>1</v>
       </c>
       <c r="C208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D208">
-        <v>1</v>
+        <v>1156.204923277073</v>
       </c>
       <c r="E208">
-        <v>2000</v>
+        <v>900</v>
       </c>
       <c r="F208">
         <v>0</v>
       </c>
       <c r="G208">
-        <v>0</v>
-      </c>
-      <c r="H208">
-        <v>247.5521973529143</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
+        <v>182.7</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -5817,25 +5190,22 @@
         <v>1</v>
       </c>
       <c r="C209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D209">
-        <v>1</v>
+        <v>1133.336165180623</v>
       </c>
       <c r="E209">
-        <v>2000</v>
+        <v>1952.681481481482</v>
       </c>
       <c r="F209">
-        <v>1069.755555555556</v>
+        <v>0</v>
       </c>
       <c r="G209">
-        <v>0</v>
-      </c>
-      <c r="H209">
-        <v>95.55219735291431</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+        <v>182.7</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -5843,25 +5213,22 @@
         <v>1</v>
       </c>
       <c r="C210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D210">
-        <v>1</v>
+        <v>1111.630810827597</v>
       </c>
       <c r="E210">
-        <v>2000</v>
+        <v>713.1703703703704</v>
       </c>
       <c r="F210">
-        <v>713.1703703703704</v>
+        <v>0</v>
       </c>
       <c r="G210">
-        <v>0</v>
-      </c>
-      <c r="H210">
-        <v>95.55219735291431</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -5869,25 +5236,22 @@
         <v>1</v>
       </c>
       <c r="C211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D211">
-        <v>1</v>
+        <v>1091.029643736829</v>
       </c>
       <c r="E211">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F211">
         <v>0</v>
       </c>
       <c r="G211">
-        <v>0</v>
-      </c>
-      <c r="H211">
-        <v>133.5521973529143</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+        <v>1585.2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -5895,25 +5259,22 @@
         <v>1</v>
       </c>
       <c r="C212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D212">
-        <v>1</v>
+        <v>1073.419369928217</v>
       </c>
       <c r="E212">
-        <v>2000</v>
+        <v>900</v>
       </c>
       <c r="F212">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G212">
-        <v>0</v>
-      </c>
-      <c r="H212">
-        <v>251.2104394705829</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+        <v>2771.7</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -5921,25 +5282,22 @@
         <v>1</v>
       </c>
       <c r="C213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D213">
-        <v>1</v>
+        <v>1058.647756247501</v>
       </c>
       <c r="E213">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="F213">
-        <v>113.1703703703704</v>
+        <v>0</v>
       </c>
       <c r="G213">
-        <v>0</v>
-      </c>
-      <c r="H213">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+        <v>1120.258993898139</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -5947,25 +5305,22 @@
         <v>1</v>
       </c>
       <c r="C214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D214">
-        <v>1</v>
+        <v>1044.627409689269</v>
       </c>
       <c r="E214">
-        <v>2000</v>
+        <v>1092.192592592593</v>
       </c>
       <c r="F214">
         <v>0</v>
       </c>
       <c r="G214">
-        <v>0</v>
-      </c>
-      <c r="H214">
-        <v>1503.4</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
+        <v>384.5237423726735</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -5973,25 +5328,22 @@
         <v>1</v>
       </c>
       <c r="C215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D215">
-        <v>1</v>
+        <v>1031.32009126025</v>
       </c>
       <c r="E215">
-        <v>2000</v>
+        <v>713.1703703703704</v>
       </c>
       <c r="F215">
         <v>0</v>
       </c>
       <c r="G215">
-        <v>0</v>
-      </c>
-      <c r="H215">
-        <v>2463</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
+        <v>495.1237423726735</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -5999,25 +5351,22 @@
         <v>1</v>
       </c>
       <c r="C216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D216">
-        <v>1</v>
+        <v>1018.689508307239</v>
       </c>
       <c r="E216">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="F216">
         <v>0</v>
       </c>
       <c r="G216">
-        <v>0</v>
-      </c>
-      <c r="H216">
-        <v>1185.7</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
+        <v>993.3998410491307</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -6025,25 +5374,22 @@
         <v>1</v>
       </c>
       <c r="C217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D217">
-        <v>1</v>
+        <v>1006.70121544963</v>
       </c>
       <c r="E217">
-        <v>2000</v>
+        <v>2479.022222222223</v>
       </c>
       <c r="F217">
-        <v>356.5851851851852</v>
+        <v>0</v>
       </c>
       <c r="G217">
-        <v>0</v>
-      </c>
-      <c r="H217">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
+        <v>482.0759397255878</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -6051,25 +5397,22 @@
         <v>1</v>
       </c>
       <c r="C218">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D218">
-        <v>1</v>
+        <v>995.2044194721851</v>
       </c>
       <c r="E218">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F218">
         <v>0</v>
       </c>
       <c r="G218">
-        <v>0</v>
-      </c>
-      <c r="H218">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
+        <v>3505.075939725588</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -6077,25 +5420,22 @@
         <v>1</v>
       </c>
       <c r="C219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D219">
-        <v>1</v>
+        <v>984.1740748512336</v>
       </c>
       <c r="E219">
-        <v>2000</v>
+        <v>356.5851851851852</v>
       </c>
       <c r="F219">
         <v>0</v>
       </c>
       <c r="G219">
-        <v>0</v>
-      </c>
-      <c r="H219">
-        <v>683.5118711863367</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
+        <v>2868.575939725588</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -6103,25 +5443,22 @@
         <v>1</v>
       </c>
       <c r="C220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D220">
-        <v>1</v>
+        <v>973.7045119472671</v>
       </c>
       <c r="E220">
-        <v>2000</v>
+        <v>356.5851851851852</v>
       </c>
       <c r="F220">
         <v>0</v>
       </c>
       <c r="G220">
-        <v>0</v>
-      </c>
-      <c r="H220">
-        <v>1982.023742372673</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
+        <v>1798.028817013786</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -6129,25 +5466,22 @@
         <v>1</v>
       </c>
       <c r="C221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D221">
-        <v>1</v>
+        <v>963.7671873529258</v>
       </c>
       <c r="E221">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F221">
         <v>0</v>
       </c>
       <c r="G221">
-        <v>0</v>
-      </c>
-      <c r="H221">
-        <v>2381.823742372674</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
+        <v>1984.252197352914</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -6155,25 +5489,22 @@
         <v>1</v>
       </c>
       <c r="C222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D222">
-        <v>1</v>
+        <v>954.335010501859</v>
       </c>
       <c r="E222">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F222">
         <v>0</v>
       </c>
       <c r="G222">
-        <v>0</v>
-      </c>
-      <c r="H222">
-        <v>386.4446213138393</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8">
+        <v>799.0521973529143</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -6181,25 +5512,22 @@
         <v>1</v>
       </c>
       <c r="C223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D223">
-        <v>1</v>
+        <v>945.3822697200624</v>
       </c>
       <c r="E223">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F223">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G223">
-        <v>0</v>
-      </c>
-      <c r="H223">
-        <v>253.3759397255878</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
+        <v>482.1521973529143</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -6207,649 +5535,574 @@
         <v>1</v>
       </c>
       <c r="C224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D224">
-        <v>1</v>
+        <v>937.1421709786546</v>
       </c>
       <c r="E224">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F224">
-        <v>1556.585185185185</v>
+        <v>0</v>
       </c>
       <c r="G224">
-        <v>0</v>
-      </c>
-      <c r="H224">
-        <v>215.3759397255878</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
+        <v>404.2760986764571</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
       <c r="A225" s="1">
         <v>223</v>
       </c>
       <c r="B225">
-        <v>554.7243502403642</v>
+        <v>1</v>
       </c>
       <c r="C225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D225">
-        <v>1</v>
+        <v>929.5784414587957</v>
       </c>
       <c r="E225">
-        <v>2000</v>
+        <v>356.5851851851852</v>
       </c>
       <c r="F225">
-        <v>2779.022222222223</v>
+        <v>0</v>
       </c>
       <c r="G225">
-        <v>0</v>
-      </c>
-      <c r="H225">
-        <v>445.1759397255878</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8">
+        <v>425.7</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
       <c r="A226" s="1">
         <v>224</v>
       </c>
       <c r="B226">
-        <v>792.034786057663</v>
+        <v>1</v>
       </c>
       <c r="C226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D226">
-        <v>1</v>
+        <v>922.39904566718</v>
       </c>
       <c r="E226">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="F226">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G226">
-        <v>0</v>
-      </c>
-      <c r="H226">
-        <v>483.6464427765184</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
+        <v>522.5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
       <c r="A227" s="1">
         <v>225</v>
       </c>
       <c r="B227">
-        <v>792.034786057663</v>
+        <v>1</v>
       </c>
       <c r="C227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D227">
-        <v>1</v>
+        <v>915.5844212851664</v>
       </c>
       <c r="E227">
-        <v>2000</v>
+        <v>56.58518518518522</v>
       </c>
       <c r="F227">
-        <v>639.5111111111113</v>
+        <v>0</v>
       </c>
       <c r="G227">
-        <v>0</v>
-      </c>
-      <c r="H227">
-        <v>324.5521973529143</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
+        <v>1146.4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
       <c r="A228" s="1">
         <v>226</v>
       </c>
       <c r="B228">
-        <v>792.034786057663</v>
+        <v>1</v>
       </c>
       <c r="C228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D228">
-        <v>1</v>
+        <v>909.1160017035011</v>
       </c>
       <c r="E228">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F228">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G228">
-        <v>0</v>
-      </c>
-      <c r="H228">
-        <v>324.5521973529143</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8">
+        <v>596.99</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
       <c r="A229" s="1">
         <v>227</v>
       </c>
       <c r="B229">
-        <v>792.034786057663</v>
+        <v>1</v>
       </c>
       <c r="C229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D229">
-        <v>1</v>
+        <v>902.9761653413686</v>
       </c>
       <c r="E229">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F229">
-        <v>713.1703703703704</v>
+        <v>0</v>
       </c>
       <c r="G229">
-        <v>0</v>
-      </c>
-      <c r="H229">
-        <v>248.2760986764571</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
       <c r="A230" s="1">
         <v>228</v>
       </c>
       <c r="B230">
-        <v>792.034786057663</v>
+        <v>1</v>
       </c>
       <c r="C230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D230">
-        <v>1</v>
+        <v>896.6787242919166</v>
       </c>
       <c r="E230">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F230">
-        <v>413.1703703703704</v>
+        <v>0</v>
       </c>
       <c r="G230">
-        <v>0</v>
-      </c>
-      <c r="H230">
-        <v>291.9118711863367</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
       <c r="A231" s="1">
         <v>229</v>
       </c>
       <c r="B231">
-        <v>792.034786057663</v>
+        <v>1</v>
       </c>
       <c r="C231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D231">
-        <v>1</v>
+        <v>890.2317002222504</v>
       </c>
       <c r="E231">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F231">
         <v>0</v>
       </c>
       <c r="G231">
-        <v>0</v>
-      </c>
-      <c r="H231">
-        <v>373.8237423726735</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
       <c r="A232" s="1">
         <v>230</v>
       </c>
       <c r="B232">
-        <v>792.034786057663</v>
+        <v>1</v>
       </c>
       <c r="C232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D232">
-        <v>1</v>
+        <v>884.1121697549282</v>
       </c>
       <c r="E232">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F232">
-        <v>1069.755555555556</v>
+        <v>0</v>
       </c>
       <c r="G232">
-        <v>0</v>
-      </c>
-      <c r="H232">
-        <v>278.8237423726735</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
+        <v>237.9</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
       <c r="A233" s="1">
         <v>231</v>
       </c>
       <c r="B233">
-        <v>792.034786057663</v>
+        <v>1</v>
       </c>
       <c r="C233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D233">
-        <v>1</v>
+        <v>878.3034636970227</v>
       </c>
       <c r="E233">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F233">
-        <v>713.1703703703704</v>
+        <v>0</v>
       </c>
       <c r="G233">
-        <v>0</v>
-      </c>
-      <c r="H233">
-        <v>183.8237423726735</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
       <c r="A234" s="1">
         <v>232</v>
       </c>
       <c r="B234">
-        <v>792.034786057663</v>
+        <v>1</v>
       </c>
       <c r="C234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D234">
-        <v>1</v>
+        <v>872.7897613067968</v>
       </c>
       <c r="E234">
-        <v>2000</v>
+        <v>356.5851851851852</v>
       </c>
       <c r="F234">
-        <v>356.5851851851852</v>
+        <v>0</v>
       </c>
       <c r="G234">
-        <v>0</v>
-      </c>
-      <c r="H234">
-        <v>316.8237423726735</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
       <c r="A235" s="1">
         <v>233</v>
       </c>
       <c r="B235">
-        <v>792.034786057663</v>
+        <v>1</v>
       </c>
       <c r="C235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D235">
-        <v>1</v>
+        <v>867.5560471080304</v>
       </c>
       <c r="E235">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="F235">
-        <v>713.1703703703704</v>
+        <v>0</v>
       </c>
       <c r="G235">
-        <v>0</v>
-      </c>
-      <c r="H235">
-        <v>226.9237423726735</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
+        <v>128.42</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
       <c r="A236" s="1">
         <v>234</v>
       </c>
       <c r="B236">
-        <v>792.034786057663</v>
+        <v>1</v>
       </c>
       <c r="C236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D236">
-        <v>1</v>
+        <v>863.5315178941255</v>
       </c>
       <c r="E236">
-        <v>2000</v>
+        <v>2479.022222222223</v>
       </c>
       <c r="F236">
         <v>0</v>
       </c>
       <c r="G236">
-        <v>0</v>
-      </c>
-      <c r="H236">
-        <v>858.8766196608715</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8">
+        <v>182.7</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
       <c r="A237" s="1">
         <v>235</v>
       </c>
       <c r="B237">
-        <v>792.034786057663</v>
+        <v>1</v>
       </c>
       <c r="C237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D237">
-        <v>1</v>
+        <v>860.6546276126439</v>
       </c>
       <c r="E237">
-        <v>1842.264416426497</v>
+        <v>1913.17037037037</v>
       </c>
       <c r="F237">
         <v>0</v>
       </c>
       <c r="G237">
-        <v>0</v>
-      </c>
-      <c r="H237">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8">
+        <v>182.7</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
       <c r="A238" s="1">
         <v>236</v>
       </c>
       <c r="B238">
-        <v>792.034786057663</v>
+        <v>1</v>
       </c>
       <c r="C238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D238">
-        <v>1</v>
+        <v>857.9235148739087</v>
       </c>
       <c r="E238">
-        <v>1838.167706491413</v>
+        <v>3000</v>
       </c>
       <c r="F238">
         <v>0</v>
       </c>
       <c r="G238">
-        <v>0</v>
-      </c>
-      <c r="H238">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8">
+        <v>215.7</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
       <c r="A239" s="1">
         <v>237</v>
       </c>
       <c r="B239">
-        <v>792.034786057663</v>
+        <v>1</v>
       </c>
       <c r="C239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D239">
-        <v>1</v>
+        <v>855.3307597150991</v>
       </c>
       <c r="E239">
-        <v>1834.270798435784</v>
+        <v>2575.118518518519</v>
       </c>
       <c r="F239">
         <v>0</v>
       </c>
       <c r="G239">
-        <v>0</v>
-      </c>
-      <c r="H239">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8">
+        <v>2319.976619660871</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
       <c r="A240" s="1">
         <v>238</v>
       </c>
       <c r="B240">
-        <v>792.034786057663</v>
+        <v>1</v>
       </c>
       <c r="C240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D240">
-        <v>1</v>
+        <v>852.869319844706</v>
       </c>
       <c r="E240">
-        <v>1830.56341833809</v>
+        <v>0</v>
       </c>
       <c r="F240">
         <v>0</v>
       </c>
       <c r="G240">
-        <v>0</v>
-      </c>
-      <c r="H240">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8">
+        <v>2972.223742372674</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
       <c r="A241" s="1">
         <v>239</v>
       </c>
       <c r="B241">
-        <v>792.034786057663</v>
+        <v>1</v>
       </c>
       <c r="C241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D241">
-        <v>1</v>
+        <v>850.5325114193056</v>
       </c>
       <c r="E241">
-        <v>1827.035820736126</v>
+        <v>1969.755555555555</v>
       </c>
       <c r="F241">
         <v>0</v>
       </c>
       <c r="G241">
-        <v>0</v>
-      </c>
-      <c r="H241">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8">
+        <v>506.5237423726735</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
       <c r="A242" s="1">
         <v>240</v>
       </c>
       <c r="B242">
-        <v>633.8278288461304</v>
+        <v>945.7107891047397</v>
       </c>
       <c r="C242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D242">
-        <v>1</v>
+        <v>848.7193681360852</v>
       </c>
       <c r="E242">
-        <v>1825.098091779103</v>
+        <v>2665.851851851852</v>
       </c>
       <c r="F242">
         <v>0</v>
       </c>
       <c r="G242">
-        <v>0</v>
-      </c>
-      <c r="H242">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8">
+        <v>335.5237423726735</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
       <c r="A243" s="1">
         <v>241</v>
       </c>
       <c r="B243">
-        <v>1</v>
+        <v>1828.26012866799</v>
       </c>
       <c r="C243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D243">
-        <v>1</v>
+        <v>847.4032646671618</v>
       </c>
       <c r="E243">
-        <v>1824.669025417279</v>
+        <v>356.5851851851852</v>
       </c>
       <c r="F243">
         <v>0</v>
       </c>
       <c r="G243">
-        <v>0</v>
-      </c>
-      <c r="H243">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8">
+        <v>316.5237423726735</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
       <c r="A244" s="1">
         <v>242</v>
       </c>
       <c r="B244">
-        <v>1</v>
+        <v>1993.175229608304</v>
       </c>
       <c r="C244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D244">
-        <v>1</v>
+        <v>846.1535535584859</v>
       </c>
       <c r="E244">
-        <v>1824.252262093779</v>
+        <v>0</v>
       </c>
       <c r="F244">
         <v>0</v>
       </c>
       <c r="G244">
-        <v>0</v>
-      </c>
-      <c r="H244">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8">
+        <v>316.5237423726735</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
       <c r="A245" s="1">
         <v>243</v>
       </c>
       <c r="B245">
-        <v>1</v>
+        <v>1769.810833044097</v>
       </c>
       <c r="C245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D245">
-        <v>1</v>
+        <v>844.9668555000246</v>
       </c>
       <c r="E245">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F245">
         <v>0</v>
       </c>
       <c r="G245">
-        <v>11000</v>
-      </c>
-      <c r="H245">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8">
+        <v>316.5237423726735</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
       <c r="A246" s="1">
         <v>244</v>
       </c>
       <c r="B246">
-        <v>1</v>
+        <v>1181.925987040268</v>
       </c>
       <c r="C246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D246">
-        <v>1</v>
+        <v>843.8399631864229</v>
       </c>
       <c r="E246">
-        <v>2000</v>
+        <v>1069.755555555556</v>
       </c>
       <c r="F246">
-        <v>356.5851851851852</v>
+        <v>0</v>
       </c>
       <c r="G246">
-        <v>11000</v>
-      </c>
-      <c r="H246">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8">
+        <v>436.3413681354061</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
       <c r="A247" s="1">
         <v>245</v>
       </c>
       <c r="B247">
-        <v>1</v>
+        <v>154.8191973080176</v>
       </c>
       <c r="C247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D247">
-        <v>1</v>
+        <v>842.7698325621008</v>
       </c>
       <c r="E247">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F247">
         <v>0</v>
       </c>
       <c r="G247">
-        <v>11000</v>
-      </c>
-      <c r="H247">
-        <v>60.4589938981388</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8">
+        <v>467.3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
       <c r="A248" s="1">
         <v>246</v>
       </c>
       <c r="B248">
-        <v>1</v>
+        <v>110.5038563283142</v>
       </c>
       <c r="C248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D248">
-        <v>1</v>
+        <v>841.7535745119382</v>
       </c>
       <c r="E248">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F248">
-        <v>713.1703703703704</v>
+        <v>0</v>
       </c>
       <c r="G248">
-        <v>11000</v>
-      </c>
-      <c r="H248">
-        <v>171.7237423726735</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8">
+        <v>413.7</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -6857,25 +6110,22 @@
         <v>1</v>
       </c>
       <c r="C249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D249">
-        <v>1</v>
+        <v>840.7884469749321</v>
       </c>
       <c r="E249">
-        <v>2000</v>
+        <v>356.5851851851852</v>
       </c>
       <c r="F249">
         <v>0</v>
       </c>
       <c r="G249">
-        <v>11000</v>
-      </c>
-      <c r="H249">
-        <v>373.8237423726735</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8">
+        <v>747.4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -6883,25 +6133,22 @@
         <v>1</v>
       </c>
       <c r="C250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D250">
-        <v>1</v>
+        <v>839.8718474591763</v>
       </c>
       <c r="E250">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F250">
         <v>0</v>
       </c>
       <c r="G250">
-        <v>11000</v>
-      </c>
-      <c r="H250">
-        <v>373.8237423726735</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8">
+        <v>1970.865659205874</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -6909,25 +6156,22 @@
         <v>1</v>
       </c>
       <c r="C251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D251">
-        <v>1</v>
+        <v>839.0013059379555</v>
       </c>
       <c r="E251">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F251">
         <v>0</v>
       </c>
       <c r="G251">
-        <v>11000</v>
-      </c>
-      <c r="H251">
-        <v>335.3037423726735</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8">
+        <v>2010.252197352914</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -6935,25 +6179,22 @@
         <v>1</v>
       </c>
       <c r="C252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D252">
-        <v>1</v>
+        <v>838.1744781072996</v>
       </c>
       <c r="E252">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F252">
         <v>0</v>
       </c>
       <c r="G252">
-        <v>1100</v>
-      </c>
-      <c r="H252">
-        <v>413.6237423726735</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8">
+        <v>1849.893565488321</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -6961,25 +6202,22 @@
         <v>1</v>
       </c>
       <c r="C253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D253">
-        <v>1</v>
+        <v>837.3891389868052</v>
       </c>
       <c r="E253">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F253">
         <v>0</v>
       </c>
       <c r="G253">
-        <v>0</v>
-      </c>
-      <c r="H253">
-        <v>456.8237423726735</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8">
+        <v>852.6759397255878</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -6987,25 +6225,22 @@
         <v>1</v>
       </c>
       <c r="C254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D254">
-        <v>1</v>
+        <v>836.6431768461325</v>
       </c>
       <c r="E254">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F254">
         <v>0</v>
       </c>
       <c r="G254">
-        <v>0</v>
-      </c>
-      <c r="H254">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8">
+        <v>603.0759397255878</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -7013,25 +6248,22 @@
         <v>1</v>
       </c>
       <c r="C255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D255">
-        <v>1</v>
+        <v>835.9345874406587</v>
       </c>
       <c r="E255">
-        <v>2000</v>
+        <v>713.1703703703704</v>
       </c>
       <c r="F255">
         <v>0</v>
       </c>
       <c r="G255">
-        <v>0</v>
-      </c>
-      <c r="H255">
-        <v>939.2942454236041</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8">
+        <v>601.7759397255877</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -7039,25 +6271,22 @@
         <v>1</v>
       </c>
       <c r="C256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D256">
-        <v>1</v>
+        <v>835.2614685405002</v>
       </c>
       <c r="E256">
-        <v>2000</v>
+        <v>713.1703703703704</v>
       </c>
       <c r="F256">
         <v>0</v>
       </c>
       <c r="G256">
-        <v>0</v>
-      </c>
-      <c r="H256">
-        <v>874.5237423726735</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8">
+        <v>689.0759397255878</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -7065,25 +6294,22 @@
         <v>1</v>
       </c>
       <c r="C257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D257">
-        <v>1</v>
+        <v>834.6220147380678</v>
       </c>
       <c r="E257">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="F257">
-        <v>713.1703703703704</v>
+        <v>0</v>
       </c>
       <c r="G257">
-        <v>0</v>
-      </c>
-      <c r="H257">
-        <v>278.7237423726735</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8">
+        <v>865.8759397255878</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -7091,25 +6317,22 @@
         <v>1</v>
       </c>
       <c r="C258">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D258">
-        <v>1</v>
+        <v>834.014512519832</v>
       </c>
       <c r="E258">
-        <v>2000</v>
+        <v>939.5111111111113</v>
       </c>
       <c r="F258">
-        <v>713.1703703703704</v>
+        <v>0</v>
       </c>
       <c r="G258">
-        <v>0</v>
-      </c>
-      <c r="H258">
-        <v>420.8237423726735</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8">
+        <v>1714.299841049131</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -7117,337 +6340,298 @@
         <v>1</v>
       </c>
       <c r="C259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D259">
-        <v>1</v>
+        <v>833.4373355890193</v>
       </c>
       <c r="E259">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="F259">
-        <v>356.5851851851852</v>
+        <v>0</v>
       </c>
       <c r="G259">
-        <v>0</v>
-      </c>
-      <c r="H259">
-        <v>1604.723742372674</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8">
+        <v>1825.075939725588</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
       <c r="A260" s="1">
         <v>258</v>
       </c>
       <c r="B260">
-        <v>1</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="C260">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D260">
-        <v>1</v>
+        <v>832.8889404262784</v>
       </c>
       <c r="E260">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="F260">
         <v>0</v>
       </c>
       <c r="G260">
-        <v>0</v>
-      </c>
-      <c r="H260">
-        <v>2772.16462131384</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8">
+        <v>1171.275939725588</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
       <c r="A261" s="1">
         <v>259</v>
       </c>
       <c r="B261">
-        <v>1</v>
+        <v>1592.531423555329</v>
       </c>
       <c r="C261">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D261">
-        <v>1</v>
+        <v>832.3678620764327</v>
       </c>
       <c r="E261">
-        <v>2000</v>
+        <v>305.3629629629635</v>
       </c>
       <c r="F261">
-        <v>356.5851851851852</v>
+        <v>0</v>
       </c>
       <c r="G261">
-        <v>0</v>
-      </c>
-      <c r="H261">
-        <v>1280.475939725588</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8">
+        <v>675.5759397255878</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
       <c r="A262" s="1">
         <v>260</v>
       </c>
       <c r="B262">
-        <v>1</v>
+        <v>1901.538541407671</v>
       </c>
       <c r="C262">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D262">
-        <v>1</v>
+        <v>831.8727101495599</v>
       </c>
       <c r="E262">
-        <v>2000</v>
+        <v>1839.511111111111</v>
       </c>
       <c r="F262">
         <v>0</v>
       </c>
       <c r="G262">
-        <v>0</v>
-      </c>
-      <c r="H262">
-        <v>506.616945827449</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8">
+        <v>603.0759397255878</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
       <c r="A263" s="1">
         <v>261</v>
       </c>
       <c r="B263">
-        <v>1</v>
+        <v>1925.688263505502</v>
       </c>
       <c r="C263">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D263">
-        <v>1</v>
+        <v>831.4021650256791</v>
       </c>
       <c r="E263">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F263">
         <v>0</v>
       </c>
       <c r="G263">
-        <v>0</v>
-      </c>
-      <c r="H263">
-        <v>374.2111912510532</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8">
+        <v>603.0759397255878</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
       <c r="A264" s="1">
         <v>262</v>
       </c>
       <c r="B264">
-        <v>1</v>
+        <v>1723.914159023753</v>
       </c>
       <c r="C264">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D264">
-        <v>1</v>
+        <v>830.9549742526258</v>
       </c>
       <c r="E264">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F264">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="G264">
-        <v>0</v>
-      </c>
-      <c r="H264">
-        <v>472.0759397255878</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8">
+        <v>1424.675939725588</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
       <c r="A265" s="1">
         <v>263</v>
       </c>
       <c r="B265">
-        <v>1</v>
+        <v>565.6630269515238</v>
       </c>
       <c r="C265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D265">
-        <v>1</v>
+        <v>830.529949127242</v>
       </c>
       <c r="E265">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F265">
-        <v>2252.681481481482</v>
+        <v>0</v>
       </c>
       <c r="G265">
-        <v>0</v>
-      </c>
-      <c r="H265">
-        <v>472.0759397255878</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8">
+        <v>1112.875939725588</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
       <c r="A266" s="1">
         <v>264</v>
       </c>
       <c r="B266">
-        <v>1</v>
+        <v>482.6023092167435</v>
       </c>
       <c r="C266">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D266">
-        <v>1</v>
+        <v>830.4174853808945</v>
       </c>
       <c r="E266">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F266">
-        <v>413.1703703703704</v>
+        <v>0</v>
       </c>
       <c r="G266">
-        <v>0</v>
-      </c>
-      <c r="H266">
-        <v>472.0759397255878</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8">
+        <v>879.9759397255878</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
       <c r="A267" s="1">
         <v>265</v>
       </c>
       <c r="B267">
-        <v>1</v>
+        <v>1232.636046590737</v>
       </c>
       <c r="C267">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D267">
-        <v>1</v>
+        <v>830.6017026492212</v>
       </c>
       <c r="E267">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F267">
-        <v>356.5851851851852</v>
+        <v>0</v>
       </c>
       <c r="G267">
-        <v>0</v>
-      </c>
-      <c r="H267">
-        <v>541.7655002550049</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8">
+        <v>561.6789621079649</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
       <c r="A268" s="1">
         <v>266</v>
       </c>
       <c r="B268">
-        <v>1</v>
+        <v>973.1702963291225</v>
       </c>
       <c r="C268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D268">
-        <v>1</v>
+        <v>830.7760049369678</v>
       </c>
       <c r="E268">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F268">
         <v>0</v>
       </c>
       <c r="G268">
-        <v>0</v>
-      </c>
-      <c r="H268">
-        <v>633.6789621079649</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8">
+        <v>556.394245423604</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
       <c r="A269" s="1">
         <v>267</v>
       </c>
       <c r="B269">
-        <v>1</v>
+        <v>1034.21670164056</v>
       </c>
       <c r="C269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D269">
-        <v>1</v>
+        <v>830.9408969266997</v>
       </c>
       <c r="E269">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="F269">
         <v>0</v>
       </c>
       <c r="G269">
-        <v>0</v>
-      </c>
-      <c r="H269">
-        <v>605.0759397255878</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8">
+        <v>588.5294969490693</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
       <c r="A270" s="1">
         <v>268</v>
       </c>
       <c r="B270">
-        <v>1</v>
+        <v>829.004225946459</v>
       </c>
       <c r="C270">
         <v>1</v>
       </c>
       <c r="D270">
-        <v>1</v>
+        <v>831.0968576129653</v>
       </c>
       <c r="E270">
-        <v>2000</v>
+        <v>696.0962962962965</v>
       </c>
       <c r="F270">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="G270">
-        <v>0</v>
-      </c>
-      <c r="H270">
-        <v>1404.675939725588</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8">
+        <v>713.1237423726734</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
       <c r="A271" s="1">
         <v>269</v>
       </c>
       <c r="B271">
-        <v>1</v>
+        <v>2085.820102343811</v>
       </c>
       <c r="C271">
-        <v>900.6</v>
+        <v>1</v>
       </c>
       <c r="D271">
-        <v>1</v>
+        <v>831.244341609812</v>
       </c>
       <c r="E271">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F271">
-        <v>1539.511111111111</v>
+        <v>0</v>
       </c>
       <c r="G271">
-        <v>0</v>
-      </c>
-      <c r="H271">
-        <v>620.5288170137858</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8">
+        <v>691.7655002550049</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -7455,25 +6639,22 @@
         <v>1</v>
       </c>
       <c r="C272">
-        <v>900.6</v>
+        <v>1</v>
       </c>
       <c r="D272">
-        <v>1</v>
+        <v>831.3837803917068</v>
       </c>
       <c r="E272">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F272">
-        <v>356.5851851851852</v>
+        <v>0</v>
       </c>
       <c r="G272">
-        <v>0</v>
-      </c>
-      <c r="H272">
-        <v>433.4111912510531</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8">
+        <v>603.0759397255878</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -7484,22 +6665,19 @@
         <v>1</v>
       </c>
       <c r="D273">
-        <v>1</v>
+        <v>831.5155834713438</v>
       </c>
       <c r="E273">
-        <v>2000</v>
+        <v>356.5851851851852</v>
       </c>
       <c r="F273">
-        <v>713.1703703703704</v>
+        <v>0</v>
       </c>
       <c r="G273">
-        <v>0</v>
-      </c>
-      <c r="H273">
-        <v>351.0759397255878</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8">
+        <v>658.0759397255878</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -7510,22 +6688,19 @@
         <v>1</v>
       </c>
       <c r="D274">
-        <v>1</v>
+        <v>831.640139517515</v>
       </c>
       <c r="E274">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F274">
-        <v>713.1703703703704</v>
+        <v>0</v>
       </c>
       <c r="G274">
-        <v>0</v>
-      </c>
-      <c r="H274">
-        <v>411.5759397255878</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8">
+        <v>710.4759397255878</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -7536,22 +6711,19 @@
         <v>1</v>
       </c>
       <c r="D275">
-        <v>1</v>
+        <v>831.7578174159847</v>
       </c>
       <c r="E275">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="F275">
         <v>0</v>
       </c>
       <c r="G275">
-        <v>0</v>
-      </c>
-      <c r="H275">
-        <v>472.0759397255878</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8">
+        <v>634.0759397255878</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -7562,22 +6734,19 @@
         <v>1</v>
       </c>
       <c r="D276">
-        <v>1</v>
+        <v>831.8689672764891</v>
       </c>
       <c r="E276">
-        <v>2000</v>
+        <v>1052.681481481482</v>
       </c>
       <c r="F276">
         <v>0</v>
       </c>
       <c r="G276">
-        <v>0</v>
-      </c>
-      <c r="H276">
-        <v>491.0759397255878</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8">
+        <v>590.0759397255878</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -7588,22 +6757,19 @@
         <v>1</v>
       </c>
       <c r="D277">
-        <v>1</v>
+        <v>831.973921388402</v>
       </c>
       <c r="E277">
-        <v>2000</v>
+        <v>356.5851851851852</v>
       </c>
       <c r="F277">
         <v>0</v>
       </c>
       <c r="G277">
-        <v>0</v>
-      </c>
-      <c r="H277">
-        <v>662.0759397255878</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8">
+        <v>590.0759397255878</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -7614,22 +6780,19 @@
         <v>1</v>
       </c>
       <c r="D278">
-        <v>1</v>
+        <v>832.0729951277826</v>
       </c>
       <c r="E278">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F278">
         <v>0</v>
       </c>
       <c r="G278">
-        <v>0</v>
-      </c>
-      <c r="H278">
-        <v>662.0759397255878</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8">
+        <v>1186.228817013786</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -7640,22 +6803,19 @@
         <v>1</v>
       </c>
       <c r="D279">
-        <v>1</v>
+        <v>832.1664878182389</v>
       </c>
       <c r="E279">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F279">
         <v>0</v>
       </c>
       <c r="G279">
-        <v>0</v>
-      </c>
-      <c r="H279">
-        <v>605.0759397255878</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8">
+        <v>761.0759397255878</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -7666,22 +6826,19 @@
         <v>1</v>
       </c>
       <c r="D280">
-        <v>1</v>
+        <v>832.2546835480182</v>
       </c>
       <c r="E280">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F280">
-        <v>356.5851851851852</v>
+        <v>0</v>
       </c>
       <c r="G280">
-        <v>0</v>
-      </c>
-      <c r="H280">
-        <v>1222.59356548832</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8">
+        <v>780.0759397255878</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -7692,22 +6849,19 @@
         <v>1</v>
       </c>
       <c r="D281">
-        <v>1</v>
+        <v>832.3378519454536</v>
       </c>
       <c r="E281">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="F281">
         <v>0</v>
       </c>
       <c r="G281">
-        <v>0</v>
-      </c>
-      <c r="H281">
-        <v>387.6521973529143</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8">
+        <v>647.0759397255878</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -7718,22 +6872,19 @@
         <v>1</v>
       </c>
       <c r="D282">
-        <v>1</v>
+        <v>832.4162489149558</v>
       </c>
       <c r="E282">
-        <v>2000</v>
+        <v>1992.192592592593</v>
       </c>
       <c r="F282">
         <v>0</v>
       </c>
       <c r="G282">
-        <v>0</v>
-      </c>
-      <c r="H282">
-        <v>423.9521973529143</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8">
+        <v>678.0759397255878</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -7741,25 +6892,22 @@
         <v>1</v>
       </c>
       <c r="C283">
-        <v>2250</v>
+        <v>1</v>
       </c>
       <c r="D283">
-        <v>1</v>
+        <v>832.4901173355786</v>
       </c>
       <c r="E283">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F283">
         <v>0</v>
       </c>
       <c r="G283">
-        <v>0</v>
-      </c>
-      <c r="H283">
-        <v>387.6521973529143</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8">
+        <v>700.0759397255878</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -7767,25 +6915,22 @@
         <v>1</v>
       </c>
       <c r="C284">
-        <v>1350.4</v>
+        <v>1</v>
       </c>
       <c r="D284">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E284">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="F284">
         <v>0</v>
       </c>
       <c r="G284">
-        <v>0</v>
-      </c>
-      <c r="H284">
-        <v>332.9417578823314</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8">
+        <v>601.0759397255878</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -7796,22 +6941,19 @@
         <v>1</v>
       </c>
       <c r="D285">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E285">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="F285">
         <v>0</v>
       </c>
       <c r="G285">
-        <v>0</v>
-      </c>
-      <c r="H285">
-        <v>307.7</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8">
+        <v>590.0759397255878</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -7822,22 +6964,19 @@
         <v>1</v>
       </c>
       <c r="D286">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E286">
-        <v>0</v>
+        <v>2875.118518518519</v>
       </c>
       <c r="F286">
         <v>0</v>
       </c>
       <c r="G286">
-        <v>0</v>
-      </c>
-      <c r="H286">
-        <v>459.7</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8">
+        <v>590.0759397255878</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -7848,22 +6987,19 @@
         <v>1</v>
       </c>
       <c r="D287">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E287">
-        <v>0</v>
+        <v>1856.585185185185</v>
       </c>
       <c r="F287">
         <v>0</v>
       </c>
       <c r="G287">
-        <v>0</v>
-      </c>
-      <c r="H287">
-        <v>497.7</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8">
+        <v>587.7111912510532</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -7871,25 +7007,22 @@
         <v>1</v>
       </c>
       <c r="C288">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D288">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E288">
-        <v>0</v>
+        <v>339.5111111111113</v>
       </c>
       <c r="F288">
         <v>0</v>
       </c>
       <c r="G288">
-        <v>0</v>
-      </c>
-      <c r="H288">
-        <v>497.7</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8">
+        <v>413.1264427765184</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -7897,10 +7030,10 @@
         <v>1</v>
       </c>
       <c r="C289">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D289">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E289">
         <v>0</v>
@@ -7909,10 +7042,7 @@
         <v>0</v>
       </c>
       <c r="G289">
-        <v>0</v>
-      </c>
-      <c r="H289">
-        <v>459.7</v>
+        <v>522.3759397255877</v>
       </c>
     </row>
   </sheetData>
